--- a/tests/Gauges/Subtotal_PageBreaks.xlsx
+++ b/tests/Gauges/Subtotal_PageBreaks.xlsx
@@ -879,7 +879,7 @@
     <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A7" s="21" t="s"/>
       <x:c r="B7" s="21" t="s"/>
-      <x:c r="C7" s="9" t="s"/>
+      <x:c r="C7" s="9"/>
       <x:c r="D7" s="10" t="s"/>
       <x:c r="E7" s="10" t="s">
         <x:v>11</x:v>
@@ -888,7 +888,7 @@
       <x:c r="G7" s="10">
         <x:f>Subtotal(9,G3:G6)</x:f>
       </x:c>
-      <x:c r="H7" s="12" t="s"/>
+      <x:c r="H7" s="12" t="n"/>
       <x:c r="I7" s="13">
         <x:f>Subtotal(9,I3:I6)</x:f>
       </x:c>
@@ -1021,7 +1021,7 @@
     <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A13" s="21" t="s"/>
       <x:c r="B13" s="21" t="s"/>
-      <x:c r="C13" s="9" t="s"/>
+      <x:c r="C13" s="9"/>
       <x:c r="D13" s="10" t="s"/>
       <x:c r="E13" s="10" t="s">
         <x:v>14</x:v>
@@ -1030,7 +1030,7 @@
       <x:c r="G13" s="10">
         <x:f>Subtotal(9,G8:G12)</x:f>
       </x:c>
-      <x:c r="H13" s="12" t="s"/>
+      <x:c r="H13" s="12" t="n"/>
       <x:c r="I13" s="13">
         <x:f>Subtotal(9,I8:I12)</x:f>
       </x:c>
@@ -1163,7 +1163,7 @@
     <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A19" s="21" t="s"/>
       <x:c r="B19" s="21" t="s"/>
-      <x:c r="C19" s="9" t="s"/>
+      <x:c r="C19" s="9"/>
       <x:c r="D19" s="10" t="s"/>
       <x:c r="E19" s="10" t="s">
         <x:v>17</x:v>
@@ -1172,7 +1172,7 @@
       <x:c r="G19" s="10">
         <x:f>Subtotal(9,G14:G18)</x:f>
       </x:c>
-      <x:c r="H19" s="12" t="s"/>
+      <x:c r="H19" s="12" t="n"/>
       <x:c r="I19" s="13">
         <x:f>Subtotal(9,I14:I18)</x:f>
       </x:c>
@@ -1280,7 +1280,7 @@
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A24" s="21" t="s"/>
       <x:c r="B24" s="21" t="s"/>
-      <x:c r="C24" s="9" t="s"/>
+      <x:c r="C24" s="9"/>
       <x:c r="D24" s="10" t="s"/>
       <x:c r="E24" s="10" t="s">
         <x:v>20</x:v>
@@ -1289,7 +1289,7 @@
       <x:c r="G24" s="10">
         <x:f>Subtotal(9,G20:G23)</x:f>
       </x:c>
-      <x:c r="H24" s="12" t="s"/>
+      <x:c r="H24" s="12" t="n"/>
       <x:c r="I24" s="13">
         <x:f>Subtotal(9,I20:I23)</x:f>
       </x:c>
@@ -1372,7 +1372,7 @@
     <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A28" s="21" t="s"/>
       <x:c r="B28" s="21" t="s"/>
-      <x:c r="C28" s="9" t="s"/>
+      <x:c r="C28" s="9"/>
       <x:c r="D28" s="10" t="s"/>
       <x:c r="E28" s="10" t="s">
         <x:v>22</x:v>
@@ -1381,7 +1381,7 @@
       <x:c r="G28" s="10">
         <x:f>Subtotal(9,G25:G27)</x:f>
       </x:c>
-      <x:c r="H28" s="12" t="s"/>
+      <x:c r="H28" s="12" t="n"/>
       <x:c r="I28" s="13">
         <x:f>Subtotal(9,I25:I27)</x:f>
       </x:c>
@@ -1464,7 +1464,7 @@
     <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A32" s="21" t="s"/>
       <x:c r="B32" s="21" t="s"/>
-      <x:c r="C32" s="9" t="s"/>
+      <x:c r="C32" s="9"/>
       <x:c r="D32" s="10" t="s"/>
       <x:c r="E32" s="10" t="s">
         <x:v>24</x:v>
@@ -1473,7 +1473,7 @@
       <x:c r="G32" s="10">
         <x:f>Subtotal(9,G29:G31)</x:f>
       </x:c>
-      <x:c r="H32" s="12" t="s"/>
+      <x:c r="H32" s="12" t="n"/>
       <x:c r="I32" s="13">
         <x:f>Subtotal(9,I29:I31)</x:f>
       </x:c>
@@ -1481,7 +1481,7 @@
     <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A33" s="21" t="s"/>
       <x:c r="B33" s="21" t="s"/>
-      <x:c r="C33" s="9" t="s"/>
+      <x:c r="C33" s="9"/>
       <x:c r="D33" s="10" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -1490,7 +1490,7 @@
       <x:c r="G33" s="10">
         <x:f>Subtotal(9,G3:G31)</x:f>
       </x:c>
-      <x:c r="H33" s="12" t="s"/>
+      <x:c r="H33" s="12" t="n"/>
       <x:c r="I33" s="13">
         <x:f>Subtotal(9,I3:I31)</x:f>
       </x:c>
@@ -1523,7 +1523,7 @@
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A35" s="21" t="s"/>
       <x:c r="B35" s="21" t="s"/>
-      <x:c r="C35" s="9" t="s"/>
+      <x:c r="C35" s="9"/>
       <x:c r="D35" s="10" t="s"/>
       <x:c r="E35" s="10" t="s">
         <x:v>28</x:v>
@@ -1532,7 +1532,7 @@
       <x:c r="G35" s="10">
         <x:f>Subtotal(9,G34:G34)</x:f>
       </x:c>
-      <x:c r="H35" s="12" t="s"/>
+      <x:c r="H35" s="12" t="n"/>
       <x:c r="I35" s="13">
         <x:f>Subtotal(9,I34:I34)</x:f>
       </x:c>
@@ -1740,7 +1740,7 @@
     <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A44" s="21" t="s"/>
       <x:c r="B44" s="21" t="s"/>
-      <x:c r="C44" s="9" t="s"/>
+      <x:c r="C44" s="9"/>
       <x:c r="D44" s="10" t="s"/>
       <x:c r="E44" s="10" t="s">
         <x:v>30</x:v>
@@ -1749,7 +1749,7 @@
       <x:c r="G44" s="10">
         <x:f>Subtotal(9,G36:G43)</x:f>
       </x:c>
-      <x:c r="H44" s="12" t="s"/>
+      <x:c r="H44" s="12" t="n"/>
       <x:c r="I44" s="13">
         <x:f>Subtotal(9,I36:I43)</x:f>
       </x:c>
@@ -1849,7 +1849,7 @@
     <x:row r="49" spans="1:9" outlineLevel="1">
       <x:c r="A49" s="21" t="s"/>
       <x:c r="B49" s="21" t="s"/>
-      <x:c r="C49" s="9" t="s"/>
+      <x:c r="C49" s="9"/>
       <x:c r="D49" s="10" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -1858,7 +1858,7 @@
       <x:c r="G49" s="10">
         <x:f>Subtotal(9,G34:G47)</x:f>
       </x:c>
-      <x:c r="H49" s="12" t="s"/>
+      <x:c r="H49" s="12" t="n"/>
       <x:c r="I49" s="13">
         <x:f>Subtotal(9,I34:I47)</x:f>
       </x:c>

--- a/tests/Gauges/Subtotal_PageBreaks.xlsx
+++ b/tests/Gauges/Subtotal_PageBreaks.xlsx
@@ -52,7 +52,7 @@
     <x:t>Binder</x:t>
   </x:si>
   <x:si>
-    <x:t>Andrews Итог</x:t>
+    <x:t>Andrews Total</x:t>
   </x:si>
   <x:si>
     <x:t>Gill</x:t>
@@ -61,7 +61,7 @@
     <x:t>Pen</x:t>
   </x:si>
   <x:si>
-    <x:t>Gill Итог</x:t>
+    <x:t>Gill Total</x:t>
   </x:si>
   <x:si>
     <x:t>Jardine</x:t>
@@ -70,7 +70,7 @@
     <x:t>Pen Set</x:t>
   </x:si>
   <x:si>
-    <x:t>Jardine Итог</x:t>
+    <x:t>Jardine Total</x:t>
   </x:si>
   <x:si>
     <x:t>Kivell</x:t>
@@ -79,22 +79,22 @@
     <x:t>Desk</x:t>
   </x:si>
   <x:si>
-    <x:t>Kivell Итог</x:t>
+    <x:t>Kivell Total</x:t>
   </x:si>
   <x:si>
     <x:t>Morgan</x:t>
   </x:si>
   <x:si>
-    <x:t>Morgan Итог</x:t>
+    <x:t>Morgan Total</x:t>
   </x:si>
   <x:si>
     <x:t>Smith</x:t>
   </x:si>
   <x:si>
-    <x:t>Smith Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Central Итог</x:t>
+    <x:t>Smith Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Central Total</x:t>
   </x:si>
   <x:si>
     <x:t>East</x:t>
@@ -103,22 +103,22 @@
     <x:t>Howard</x:t>
   </x:si>
   <x:si>
-    <x:t>Howard Итог</x:t>
+    <x:t>Howard Total</x:t>
   </x:si>
   <x:si>
     <x:t>Jones</x:t>
   </x:si>
   <x:si>
-    <x:t>Jones Итог</x:t>
+    <x:t>Jones Total</x:t>
   </x:si>
   <x:si>
     <x:t>Parent</x:t>
   </x:si>
   <x:si>
-    <x:t>Parent Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Итог</x:t>
+    <x:t>Parent Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Total</x:t>
   </x:si>
   <x:si>
     <x:t>West</x:t>
@@ -127,19 +127,19 @@
     <x:t>Sorvino</x:t>
   </x:si>
   <x:si>
-    <x:t>Sorvino Итог</x:t>
+    <x:t>Sorvino Total</x:t>
   </x:si>
   <x:si>
     <x:t>Thompson</x:t>
   </x:si>
   <x:si>
-    <x:t>Thompson Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Общий Итог</x:t>
+    <x:t>Thompson Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общий Total</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -277,7 +277,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -295,9 +295,6 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -323,9 +320,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -879,7 +873,7 @@
     <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A7" s="21" t="s"/>
       <x:c r="B7" s="21" t="s"/>
-      <x:c r="C7" s="9"/>
+      <x:c r="C7" s="9" t="s"/>
       <x:c r="D7" s="10" t="s"/>
       <x:c r="E7" s="10" t="s">
         <x:v>11</x:v>
@@ -888,7 +882,7 @@
       <x:c r="G7" s="10">
         <x:f>Subtotal(9,G3:G6)</x:f>
       </x:c>
-      <x:c r="H7" s="12" t="n"/>
+      <x:c r="H7" s="12" t="s"/>
       <x:c r="I7" s="13">
         <x:f>Subtotal(9,I3:I6)</x:f>
       </x:c>
@@ -1021,7 +1015,7 @@
     <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A13" s="21" t="s"/>
       <x:c r="B13" s="21" t="s"/>
-      <x:c r="C13" s="9"/>
+      <x:c r="C13" s="9" t="s"/>
       <x:c r="D13" s="10" t="s"/>
       <x:c r="E13" s="10" t="s">
         <x:v>14</x:v>
@@ -1030,7 +1024,7 @@
       <x:c r="G13" s="10">
         <x:f>Subtotal(9,G8:G12)</x:f>
       </x:c>
-      <x:c r="H13" s="12" t="n"/>
+      <x:c r="H13" s="12" t="s"/>
       <x:c r="I13" s="13">
         <x:f>Subtotal(9,I8:I12)</x:f>
       </x:c>
@@ -1163,7 +1157,7 @@
     <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A19" s="21" t="s"/>
       <x:c r="B19" s="21" t="s"/>
-      <x:c r="C19" s="9"/>
+      <x:c r="C19" s="9" t="s"/>
       <x:c r="D19" s="10" t="s"/>
       <x:c r="E19" s="10" t="s">
         <x:v>17</x:v>
@@ -1172,7 +1166,7 @@
       <x:c r="G19" s="10">
         <x:f>Subtotal(9,G14:G18)</x:f>
       </x:c>
-      <x:c r="H19" s="12" t="n"/>
+      <x:c r="H19" s="12" t="s"/>
       <x:c r="I19" s="13">
         <x:f>Subtotal(9,I14:I18)</x:f>
       </x:c>
@@ -1280,7 +1274,7 @@
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A24" s="21" t="s"/>
       <x:c r="B24" s="21" t="s"/>
-      <x:c r="C24" s="9"/>
+      <x:c r="C24" s="9" t="s"/>
       <x:c r="D24" s="10" t="s"/>
       <x:c r="E24" s="10" t="s">
         <x:v>20</x:v>
@@ -1289,7 +1283,7 @@
       <x:c r="G24" s="10">
         <x:f>Subtotal(9,G20:G23)</x:f>
       </x:c>
-      <x:c r="H24" s="12" t="n"/>
+      <x:c r="H24" s="12" t="s"/>
       <x:c r="I24" s="13">
         <x:f>Subtotal(9,I20:I23)</x:f>
       </x:c>
@@ -1372,7 +1366,7 @@
     <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A28" s="21" t="s"/>
       <x:c r="B28" s="21" t="s"/>
-      <x:c r="C28" s="9"/>
+      <x:c r="C28" s="9" t="s"/>
       <x:c r="D28" s="10" t="s"/>
       <x:c r="E28" s="10" t="s">
         <x:v>22</x:v>
@@ -1381,7 +1375,7 @@
       <x:c r="G28" s="10">
         <x:f>Subtotal(9,G25:G27)</x:f>
       </x:c>
-      <x:c r="H28" s="12" t="n"/>
+      <x:c r="H28" s="12" t="s"/>
       <x:c r="I28" s="13">
         <x:f>Subtotal(9,I25:I27)</x:f>
       </x:c>
@@ -1464,7 +1458,7 @@
     <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A32" s="21" t="s"/>
       <x:c r="B32" s="21" t="s"/>
-      <x:c r="C32" s="9"/>
+      <x:c r="C32" s="9" t="s"/>
       <x:c r="D32" s="10" t="s"/>
       <x:c r="E32" s="10" t="s">
         <x:v>24</x:v>
@@ -1473,7 +1467,7 @@
       <x:c r="G32" s="10">
         <x:f>Subtotal(9,G29:G31)</x:f>
       </x:c>
-      <x:c r="H32" s="12" t="n"/>
+      <x:c r="H32" s="12" t="s"/>
       <x:c r="I32" s="13">
         <x:f>Subtotal(9,I29:I31)</x:f>
       </x:c>
@@ -1481,7 +1475,7 @@
     <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A33" s="21" t="s"/>
       <x:c r="B33" s="21" t="s"/>
-      <x:c r="C33" s="9"/>
+      <x:c r="C33" s="9" t="s"/>
       <x:c r="D33" s="10" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -1490,7 +1484,7 @@
       <x:c r="G33" s="10">
         <x:f>Subtotal(9,G3:G31)</x:f>
       </x:c>
-      <x:c r="H33" s="12" t="n"/>
+      <x:c r="H33" s="12" t="s"/>
       <x:c r="I33" s="13">
         <x:f>Subtotal(9,I3:I31)</x:f>
       </x:c>
@@ -1523,7 +1517,7 @@
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A35" s="21" t="s"/>
       <x:c r="B35" s="21" t="s"/>
-      <x:c r="C35" s="9"/>
+      <x:c r="C35" s="9" t="s"/>
       <x:c r="D35" s="10" t="s"/>
       <x:c r="E35" s="10" t="s">
         <x:v>28</x:v>
@@ -1532,7 +1526,7 @@
       <x:c r="G35" s="10">
         <x:f>Subtotal(9,G34:G34)</x:f>
       </x:c>
-      <x:c r="H35" s="12" t="n"/>
+      <x:c r="H35" s="12" t="s"/>
       <x:c r="I35" s="13">
         <x:f>Subtotal(9,I34:I34)</x:f>
       </x:c>
@@ -1740,7 +1734,7 @@
     <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A44" s="21" t="s"/>
       <x:c r="B44" s="21" t="s"/>
-      <x:c r="C44" s="9"/>
+      <x:c r="C44" s="9" t="s"/>
       <x:c r="D44" s="10" t="s"/>
       <x:c r="E44" s="10" t="s">
         <x:v>30</x:v>
@@ -1749,7 +1743,7 @@
       <x:c r="G44" s="10">
         <x:f>Subtotal(9,G36:G43)</x:f>
       </x:c>
-      <x:c r="H44" s="12" t="n"/>
+      <x:c r="H44" s="12" t="s"/>
       <x:c r="I44" s="13">
         <x:f>Subtotal(9,I36:I43)</x:f>
       </x:c>
@@ -1849,7 +1843,7 @@
     <x:row r="49" spans="1:9" outlineLevel="1">
       <x:c r="A49" s="21" t="s"/>
       <x:c r="B49" s="21" t="s"/>
-      <x:c r="C49" s="9"/>
+      <x:c r="C49" s="9" t="s"/>
       <x:c r="D49" s="10" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -1858,7 +1852,7 @@
       <x:c r="G49" s="10">
         <x:f>Subtotal(9,G34:G47)</x:f>
       </x:c>
-      <x:c r="H49" s="12" t="n"/>
+      <x:c r="H49" s="12" t="s"/>
       <x:c r="I49" s="13">
         <x:f>Subtotal(9,I34:I47)</x:f>
       </x:c>

--- a/tests/Gauges/Subtotal_PageBreaks.xlsx
+++ b/tests/Gauges/Subtotal_PageBreaks.xlsx
@@ -139,7 +139,7 @@
     <x:t>West Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Общий Total</x:t>
+    <x:t>Grand Total</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/tests/Gauges/Subtotal_PageBreaks.xlsx
+++ b/tests/Gauges/Subtotal_PageBreaks.xlsx
@@ -277,59 +277,56 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="18">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="28">
+  <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment vertical="center"/>
@@ -387,14 +384,6 @@
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
@@ -413,10 +402,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -719,60 +704,60 @@
   <x:dimension ref="A1:I47"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <x:selection activeCell="A28" sqref="A28 A28:XFD28"/>
+      <x:selection activeCell="A28" sqref="A28 28:28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="10.5" outlineLevelCol="3"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="20" customWidth="1"/>
-    <x:col min="3" max="3" width="12" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="8.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="12" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="9" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="6.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="10.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="11" style="20" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="8.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="9" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="6.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="10.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="11" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A1" s="21" t="s"/>
-      <x:c r="B1" s="21" t="s"/>
-      <x:c r="C1" s="21" t="s"/>
-      <x:c r="D1" s="21" t="s"/>
-      <x:c r="E1" s="21" t="s"/>
-      <x:c r="F1" s="21" t="s"/>
-      <x:c r="G1" s="22" t="s"/>
-      <x:c r="H1" s="21" t="s"/>
-      <x:c r="I1" s="21" t="s"/>
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="C1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="20" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A2" s="21" t="s"/>
-      <x:c r="B2" s="21" t="s"/>
-      <x:c r="C2" s="23" t="s">
+      <x:c r="A2" s="1" t="s"/>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C2" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="24" t="s">
+      <x:c r="D2" s="22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E2" s="24" t="s">
+      <x:c r="E2" s="22" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F2" s="25" t="s">
+      <x:c r="F2" s="23" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="25" t="s">
+      <x:c r="G2" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H2" s="25" t="s">
+      <x:c r="H2" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="26" t="s">
+      <x:c r="I2" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A3" s="21" t="s"/>
-      <x:c r="B3" s="21" t="s"/>
+      <x:c r="A3" s="1" t="s"/>
+      <x:c r="B3" s="1" t="s"/>
       <x:c r="C3" s="9">
         <x:v>42112</x:v>
       </x:c>
@@ -796,8 +781,8 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A4" s="21" t="s"/>
-      <x:c r="B4" s="21" t="s"/>
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
       <x:c r="C4" s="9">
         <x:v>42470</x:v>
       </x:c>
@@ -821,8 +806,8 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A5" s="21" t="s"/>
-      <x:c r="B5" s="21" t="s"/>
+      <x:c r="A5" s="1" t="s"/>
+      <x:c r="B5" s="1" t="s"/>
       <x:c r="C5" s="9">
         <x:v>42674</x:v>
       </x:c>
@@ -846,8 +831,8 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A6" s="21" t="s"/>
-      <x:c r="B6" s="21" t="s"/>
+      <x:c r="A6" s="1" t="s"/>
+      <x:c r="B6" s="1" t="s"/>
       <x:c r="C6" s="9">
         <x:v>42725</x:v>
       </x:c>
@@ -871,8 +856,8 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A7" s="21" t="s"/>
-      <x:c r="B7" s="21" t="s"/>
+      <x:c r="A7" s="1" t="s"/>
+      <x:c r="B7" s="1" t="s"/>
       <x:c r="C7" s="9" t="s"/>
       <x:c r="D7" s="10" t="s"/>
       <x:c r="E7" s="10" t="s">
@@ -888,8 +873,8 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A8" s="21" t="s"/>
-      <x:c r="B8" s="21" t="s"/>
+      <x:c r="A8" s="1" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
       <x:c r="C8" s="9">
         <x:v>42061</x:v>
       </x:c>
@@ -913,8 +898,8 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A9" s="21" t="s"/>
-      <x:c r="B9" s="21" t="s"/>
+      <x:c r="A9" s="1" t="s"/>
+      <x:c r="B9" s="1" t="s"/>
       <x:c r="C9" s="9">
         <x:v>42384</x:v>
       </x:c>
@@ -938,8 +923,8 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A10" s="21" t="s"/>
-      <x:c r="B10" s="21" t="s"/>
+      <x:c r="A10" s="1" t="s"/>
+      <x:c r="B10" s="1" t="s"/>
       <x:c r="C10" s="9">
         <x:v>42504</x:v>
       </x:c>
@@ -963,8 +948,8 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A11" s="21" t="s"/>
-      <x:c r="B11" s="21" t="s"/>
+      <x:c r="A11" s="1" t="s"/>
+      <x:c r="B11" s="1" t="s"/>
       <x:c r="C11" s="9">
         <x:v>42521</x:v>
       </x:c>
@@ -988,8 +973,8 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A12" s="21" t="s"/>
-      <x:c r="B12" s="21" t="s"/>
+      <x:c r="A12" s="1" t="s"/>
+      <x:c r="B12" s="1" t="s"/>
       <x:c r="C12" s="9">
         <x:v>42623</x:v>
       </x:c>
@@ -1013,8 +998,8 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A13" s="21" t="s"/>
-      <x:c r="B13" s="21" t="s"/>
+      <x:c r="A13" s="1" t="s"/>
+      <x:c r="B13" s="1" t="s"/>
       <x:c r="C13" s="9" t="s"/>
       <x:c r="D13" s="10" t="s"/>
       <x:c r="E13" s="10" t="s">
@@ -1030,8 +1015,8 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A14" s="21" t="s"/>
-      <x:c r="B14" s="21" t="s"/>
+      <x:c r="A14" s="1" t="s"/>
+      <x:c r="B14" s="1" t="s"/>
       <x:c r="C14" s="9">
         <x:v>42044</x:v>
       </x:c>
@@ -1055,8 +1040,8 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A15" s="21" t="s"/>
-      <x:c r="B15" s="21" t="s"/>
+      <x:c r="A15" s="1" t="s"/>
+      <x:c r="B15" s="1" t="s"/>
       <x:c r="C15" s="9">
         <x:v>42129</x:v>
       </x:c>
@@ -1080,8 +1065,8 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A16" s="21" t="s"/>
-      <x:c r="B16" s="21" t="s"/>
+      <x:c r="A16" s="1" t="s"/>
+      <x:c r="B16" s="1" t="s"/>
       <x:c r="C16" s="9">
         <x:v>42453</x:v>
       </x:c>
@@ -1105,8 +1090,8 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A17" s="21" t="s"/>
-      <x:c r="B17" s="21" t="s"/>
+      <x:c r="A17" s="1" t="s"/>
+      <x:c r="B17" s="1" t="s"/>
       <x:c r="C17" s="9">
         <x:v>42691</x:v>
       </x:c>
@@ -1130,8 +1115,8 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A18" s="21" t="s"/>
-      <x:c r="B18" s="21" t="s"/>
+      <x:c r="A18" s="1" t="s"/>
+      <x:c r="B18" s="1" t="s"/>
       <x:c r="C18" s="9">
         <x:v>42708</x:v>
       </x:c>
@@ -1155,8 +1140,8 @@
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A19" s="21" t="s"/>
-      <x:c r="B19" s="21" t="s"/>
+      <x:c r="A19" s="1" t="s"/>
+      <x:c r="B19" s="1" t="s"/>
       <x:c r="C19" s="9" t="s"/>
       <x:c r="D19" s="10" t="s"/>
       <x:c r="E19" s="10" t="s">
@@ -1172,8 +1157,8 @@
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A20" s="21" t="s"/>
-      <x:c r="B20" s="21" t="s"/>
+      <x:c r="A20" s="1" t="s"/>
+      <x:c r="B20" s="1" t="s"/>
       <x:c r="C20" s="9">
         <x:v>42027</x:v>
       </x:c>
@@ -1197,8 +1182,8 @@
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A21" s="21" t="s"/>
-      <x:c r="B21" s="21" t="s"/>
+      <x:c r="A21" s="1" t="s"/>
+      <x:c r="B21" s="1" t="s"/>
       <x:c r="C21" s="9">
         <x:v>42333</x:v>
       </x:c>
@@ -1222,8 +1207,8 @@
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A22" s="21" t="s"/>
-      <x:c r="B22" s="21" t="s"/>
+      <x:c r="A22" s="1" t="s"/>
+      <x:c r="B22" s="1" t="s"/>
       <x:c r="C22" s="9">
         <x:v>42538</x:v>
       </x:c>
@@ -1247,8 +1232,8 @@
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A23" s="21" t="s"/>
-      <x:c r="B23" s="21" t="s"/>
+      <x:c r="A23" s="1" t="s"/>
+      <x:c r="B23" s="1" t="s"/>
       <x:c r="C23" s="9">
         <x:v>42589</x:v>
       </x:c>
@@ -1272,8 +1257,8 @@
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A24" s="21" t="s"/>
-      <x:c r="B24" s="21" t="s"/>
+      <x:c r="A24" s="1" t="s"/>
+      <x:c r="B24" s="1" t="s"/>
       <x:c r="C24" s="9" t="s"/>
       <x:c r="D24" s="10" t="s"/>
       <x:c r="E24" s="10" t="s">
@@ -1289,8 +1274,8 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A25" s="21" t="s"/>
-      <x:c r="B25" s="21" t="s"/>
+      <x:c r="A25" s="1" t="s"/>
+      <x:c r="B25" s="1" t="s"/>
       <x:c r="C25" s="9">
         <x:v>42180</x:v>
       </x:c>
@@ -1314,8 +1299,8 @@
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A26" s="21" t="s"/>
-      <x:c r="B26" s="21" t="s"/>
+      <x:c r="A26" s="1" t="s"/>
+      <x:c r="B26" s="1" t="s"/>
       <x:c r="C26" s="9">
         <x:v>42282</x:v>
       </x:c>
@@ -1339,8 +1324,8 @@
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A27" s="21" t="s"/>
-      <x:c r="B27" s="21" t="s"/>
+      <x:c r="A27" s="1" t="s"/>
+      <x:c r="B27" s="1" t="s"/>
       <x:c r="C27" s="9">
         <x:v>42572</x:v>
       </x:c>
@@ -1364,8 +1349,8 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A28" s="21" t="s"/>
-      <x:c r="B28" s="21" t="s"/>
+      <x:c r="A28" s="1" t="s"/>
+      <x:c r="B28" s="1" t="s"/>
       <x:c r="C28" s="9" t="s"/>
       <x:c r="D28" s="10" t="s"/>
       <x:c r="E28" s="10" t="s">
@@ -1381,8 +1366,8 @@
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A29" s="21" t="s"/>
-      <x:c r="B29" s="21" t="s"/>
+      <x:c r="A29" s="1" t="s"/>
+      <x:c r="B29" s="1" t="s"/>
       <x:c r="C29" s="9">
         <x:v>42248</x:v>
       </x:c>
@@ -1406,8 +1391,8 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A30" s="21" t="s"/>
-      <x:c r="B30" s="21" t="s"/>
+      <x:c r="A30" s="1" t="s"/>
+      <x:c r="B30" s="1" t="s"/>
       <x:c r="C30" s="9">
         <x:v>42350</x:v>
       </x:c>
@@ -1431,8 +1416,8 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A31" s="21" t="s"/>
-      <x:c r="B31" s="21" t="s"/>
+      <x:c r="A31" s="1" t="s"/>
+      <x:c r="B31" s="1" t="s"/>
       <x:c r="C31" s="9">
         <x:v>42401</x:v>
       </x:c>
@@ -1456,8 +1441,8 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A32" s="21" t="s"/>
-      <x:c r="B32" s="21" t="s"/>
+      <x:c r="A32" s="1" t="s"/>
+      <x:c r="B32" s="1" t="s"/>
       <x:c r="C32" s="9" t="s"/>
       <x:c r="D32" s="10" t="s"/>
       <x:c r="E32" s="10" t="s">
@@ -1473,8 +1458,8 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <x:c r="A33" s="21" t="s"/>
-      <x:c r="B33" s="21" t="s"/>
+      <x:c r="A33" s="1" t="s"/>
+      <x:c r="B33" s="1" t="s"/>
       <x:c r="C33" s="9" t="s"/>
       <x:c r="D33" s="10" t="s">
         <x:v>25</x:v>
@@ -1490,8 +1475,8 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A34" s="21" t="s"/>
-      <x:c r="B34" s="21" t="s"/>
+      <x:c r="A34" s="1" t="s"/>
+      <x:c r="B34" s="1" t="s"/>
       <x:c r="C34" s="9">
         <x:v>42197</x:v>
       </x:c>
@@ -1515,8 +1500,8 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A35" s="21" t="s"/>
-      <x:c r="B35" s="21" t="s"/>
+      <x:c r="A35" s="1" t="s"/>
+      <x:c r="B35" s="1" t="s"/>
       <x:c r="C35" s="9" t="s"/>
       <x:c r="D35" s="10" t="s"/>
       <x:c r="E35" s="10" t="s">
@@ -1532,8 +1517,8 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A36" s="21" t="s"/>
-      <x:c r="B36" s="21" t="s"/>
+      <x:c r="A36" s="1" t="s"/>
+      <x:c r="B36" s="1" t="s"/>
       <x:c r="C36" s="9">
         <x:v>42010</x:v>
       </x:c>
@@ -1557,8 +1542,8 @@
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A37" s="21" t="s"/>
-      <x:c r="B37" s="21" t="s"/>
+      <x:c r="A37" s="1" t="s"/>
+      <x:c r="B37" s="1" t="s"/>
       <x:c r="C37" s="9">
         <x:v>42095</x:v>
       </x:c>
@@ -1582,8 +1567,8 @@
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A38" s="21" t="s"/>
-      <x:c r="B38" s="21" t="s"/>
+      <x:c r="A38" s="1" t="s"/>
+      <x:c r="B38" s="1" t="s"/>
       <x:c r="C38" s="9">
         <x:v>42163</x:v>
       </x:c>
@@ -1607,8 +1592,8 @@
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A39" s="21" t="s"/>
-      <x:c r="B39" s="21" t="s"/>
+      <x:c r="A39" s="1" t="s"/>
+      <x:c r="B39" s="1" t="s"/>
       <x:c r="C39" s="9">
         <x:v>42231</x:v>
       </x:c>
@@ -1632,8 +1617,8 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A40" s="21" t="s"/>
-      <x:c r="B40" s="21" t="s"/>
+      <x:c r="A40" s="1" t="s"/>
+      <x:c r="B40" s="1" t="s"/>
       <x:c r="C40" s="9">
         <x:v>42265</x:v>
       </x:c>
@@ -1657,8 +1642,8 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A41" s="21" t="s"/>
-      <x:c r="B41" s="21" t="s"/>
+      <x:c r="A41" s="1" t="s"/>
+      <x:c r="B41" s="1" t="s"/>
       <x:c r="C41" s="9">
         <x:v>42299</x:v>
       </x:c>
@@ -1682,8 +1667,8 @@
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A42" s="21" t="s"/>
-      <x:c r="B42" s="21" t="s"/>
+      <x:c r="A42" s="1" t="s"/>
+      <x:c r="B42" s="1" t="s"/>
       <x:c r="C42" s="9">
         <x:v>42418</x:v>
       </x:c>
@@ -1707,8 +1692,8 @@
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A43" s="21" t="s"/>
-      <x:c r="B43" s="21" t="s"/>
+      <x:c r="A43" s="1" t="s"/>
+      <x:c r="B43" s="1" t="s"/>
       <x:c r="C43" s="9">
         <x:v>42555</x:v>
       </x:c>
@@ -1732,8 +1717,8 @@
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A44" s="21" t="s"/>
-      <x:c r="B44" s="21" t="s"/>
+      <x:c r="A44" s="1" t="s"/>
+      <x:c r="B44" s="1" t="s"/>
       <x:c r="C44" s="9" t="s"/>
       <x:c r="D44" s="10" t="s"/>
       <x:c r="E44" s="10" t="s">
@@ -1749,8 +1734,6 @@
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9" outlineLevel="3">
-      <x:c r="A45" s="21" t="s"/>
-      <x:c r="B45" s="21" t="s"/>
       <x:c r="C45" s="9">
         <x:v>42214</x:v>
       </x:c>
@@ -1774,8 +1757,6 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9" outlineLevel="3">
-      <x:c r="A46" s="21" t="s"/>
-      <x:c r="B46" s="21" t="s"/>
       <x:c r="C46" s="9">
         <x:v>42316</x:v>
       </x:c>
@@ -1799,8 +1780,6 @@
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9" outlineLevel="3">
-      <x:c r="A47" s="21" t="s"/>
-      <x:c r="B47" s="21" t="s"/>
       <x:c r="C47" s="9">
         <x:v>42367</x:v>
       </x:c>
@@ -1824,8 +1803,6 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9" outlineLevel="2">
-      <x:c r="A48" s="21" t="s"/>
-      <x:c r="B48" s="21" t="s"/>
       <x:c r="C48" s="9" t="s"/>
       <x:c r="D48" s="10" t="s"/>
       <x:c r="E48" s="10" t="s">
@@ -1841,8 +1818,6 @@
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9" outlineLevel="1">
-      <x:c r="A49" s="21" t="s"/>
-      <x:c r="B49" s="21" t="s"/>
       <x:c r="C49" s="9" t="s"/>
       <x:c r="D49" s="10" t="s">
         <x:v>33</x:v>
@@ -1858,8 +1833,6 @@
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9" outlineLevel="3">
-      <x:c r="A50" s="21" t="s"/>
-      <x:c r="B50" s="21" t="s"/>
       <x:c r="C50" s="9">
         <x:v>42078</x:v>
       </x:c>
@@ -1883,8 +1856,6 @@
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9" outlineLevel="3">
-      <x:c r="A51" s="21" t="s"/>
-      <x:c r="B51" s="21" t="s"/>
       <x:c r="C51" s="9">
         <x:v>42436</x:v>
       </x:c>
@@ -1908,8 +1879,6 @@
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9" outlineLevel="3">
-      <x:c r="A52" s="21" t="s"/>
-      <x:c r="B52" s="21" t="s"/>
       <x:c r="C52" s="9">
         <x:v>42606</x:v>
       </x:c>
@@ -1933,8 +1902,6 @@
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9" outlineLevel="3">
-      <x:c r="A53" s="21" t="s"/>
-      <x:c r="B53" s="21" t="s"/>
       <x:c r="C53" s="9">
         <x:v>42640</x:v>
       </x:c>
@@ -1958,8 +1925,6 @@
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9" outlineLevel="2">
-      <x:c r="A54" s="21" t="s"/>
-      <x:c r="B54" s="21" t="s"/>
       <x:c r="C54" s="9" t="s"/>
       <x:c r="D54" s="10" t="s"/>
       <x:c r="E54" s="10" t="s">
@@ -1975,8 +1940,6 @@
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9" outlineLevel="3">
-      <x:c r="A55" s="21" t="s"/>
-      <x:c r="B55" s="21" t="s"/>
       <x:c r="C55" s="9">
         <x:v>42146</x:v>
       </x:c>
@@ -2000,8 +1963,6 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9" outlineLevel="3">
-      <x:c r="A56" s="21" t="s"/>
-      <x:c r="B56" s="21" t="s"/>
       <x:c r="C56" s="14">
         <x:v>42657</x:v>
       </x:c>
@@ -2025,8 +1986,6 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9" outlineLevel="2">
-      <x:c r="A57" s="21" t="s"/>
-      <x:c r="B57" s="21" t="s"/>
       <x:c r="C57" s="14" t="s"/>
       <x:c r="D57" s="15" t="s"/>
       <x:c r="E57" s="15" t="s">
@@ -2042,8 +2001,6 @@
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9" outlineLevel="1">
-      <x:c r="A58" s="21" t="s"/>
-      <x:c r="B58" s="21" t="s"/>
       <x:c r="C58" s="14" t="s"/>
       <x:c r="D58" s="15" t="s">
         <x:v>39</x:v>
@@ -2059,8 +2016,6 @@
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
-      <x:c r="A59" s="21" t="s"/>
-      <x:c r="B59" s="21" t="s"/>
       <x:c r="C59" s="14" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -2076,13 +2031,13 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
-      <x:c r="G62" s="20" t="n">
+      <x:c r="G62" s="0" t="n">
         <x:v>2121</x:v>
       </x:c>
-      <x:c r="H62" s="27" t="n">
+      <x:c r="H62" s="19" t="n">
         <x:v>873.27</x:v>
       </x:c>
-      <x:c r="I62" s="27" t="n">
+      <x:c r="I62" s="19" t="n">
         <x:v>19627.88</x:v>
       </x:c>
     </x:row>
